--- a/data.xlsx
+++ b/data.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishaan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Python Project\Flask Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF122AEB-6CB0-7B42-BFE6-43D75F3CEE6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,24 +29,6 @@
     <t>Body Part:</t>
   </si>
   <si>
-    <t>Shoulders:</t>
-  </si>
-  <si>
-    <t>Core:</t>
-  </si>
-  <si>
-    <t>Arms:</t>
-  </si>
-  <si>
-    <t>Back:</t>
-  </si>
-  <si>
-    <t>Legs:</t>
-  </si>
-  <si>
-    <t>Chest:</t>
-  </si>
-  <si>
     <t>Flat Barbell Bench Press</t>
   </si>
   <si>
@@ -223,13 +201,31 @@
   </si>
   <si>
     <t>Weighted V-Up</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Legs</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Arms</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Shoulders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -539,240 +535,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
